--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,61 +46,73 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
+    <t>poor</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>paint</t>
@@ -109,10 +121,7 @@
     <t>thought</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>tried</t>
   </si>
   <si>
     <t>ok</t>
@@ -124,90 +133,87 @@
     <t>though</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>work</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>work</t>
+    <t>back</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>back</t>
+    <t>product</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>5</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -220,12 +226,12 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -238,25 +244,28 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>christmas</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -620,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,38 +698,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L3">
         <v>46</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>46</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L3">
-        <v>48</v>
-      </c>
-      <c r="M3">
-        <v>48</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -731,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -739,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7954545454545454</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4">
         <v>0.8</v>
@@ -789,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7524271844660194</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C5">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K5">
-        <v>0.6559139784946236</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7204301075268817</v>
+        <v>0.765625</v>
       </c>
       <c r="C6">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>0.5625</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.71875</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>0.5283018867924528</v>
+        <v>0.484375</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7105263157894737</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K8">
         <v>0.4492753623188406</v>
@@ -989,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.704225352112676</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>0.3663934426229508</v>
+        <v>0.3713114754098361</v>
       </c>
       <c r="L9">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M9">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6756756756756757</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K10">
-        <v>0.3448275862068966</v>
+        <v>0.3371592539454806</v>
       </c>
       <c r="L10">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M10">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6571428571428571</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,16 +1119,16 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>0.2966804979253112</v>
+        <v>0.2717842323651452</v>
       </c>
       <c r="L11">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M11">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.631578947368421</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.2228915662650602</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>0.2166666666666667</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>94</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>0.1987767584097859</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1281,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>262</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5546218487394958</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>0.1587301587301587</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5542168674698795</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1357,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>0.108433734939759</v>
+        <v>0.171875</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1381,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>222</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5370370370370371</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1407,31 +1416,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>0.09824561403508772</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1028</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5333333333333333</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,31 +1466,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K18">
-        <v>0.06685236768802229</v>
+        <v>0.1105263157894737</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>335</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1489,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.527536231884058</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C19">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1507,31 +1516,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>0.05064935064935065</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="L19">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>1462</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4727272727272727</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,7 +1566,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20">
+        <v>0.0512987012987013</v>
+      </c>
+      <c r="L20">
+        <v>79</v>
+      </c>
+      <c r="M20">
+        <v>80</v>
+      </c>
+      <c r="N20">
+        <v>0.99</v>
+      </c>
+      <c r="O20">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1461</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1565,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.462962962962963</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1583,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,13 +1624,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4421052631578947</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1609,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1617,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4330708661417323</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1635,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1643,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3968253968253968</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1661,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1669,13 +1702,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3861386138613861</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C25">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1687,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>124</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1695,13 +1728,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3833333333333334</v>
+        <v>0.40625</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1713,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1721,13 +1754,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3595505617977528</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1739,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1747,13 +1780,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3359375</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1765,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1773,13 +1806,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3222748815165877</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="C29">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1791,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1799,13 +1832,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2905982905982906</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1817,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1825,13 +1858,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2628865979381443</v>
+        <v>0.3359375</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1843,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1851,13 +1884,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2448979591836735</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1869,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1877,13 +1910,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2288135593220339</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1895,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1903,13 +1936,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2210144927536232</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="C34">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1921,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>215</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1929,13 +1962,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.212962962962963</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1947,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1955,25 +1988,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2005943536404161</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C36">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="D36">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>538</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1981,13 +2014,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1993670886075949</v>
+        <v>0.2341772151898734</v>
       </c>
       <c r="C37">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D37">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1999,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2007,13 +2040,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.195</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2025,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>161</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2033,13 +2066,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1930379746835443</v>
+        <v>0.2246376811594203</v>
       </c>
       <c r="C39">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2051,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>255</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2059,25 +2092,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.191588785046729</v>
+        <v>0.2154531946508172</v>
       </c>
       <c r="C40">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="D40">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>173</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2085,13 +2118,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1857142857142857</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2103,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2111,13 +2144,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1771428571428571</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2129,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>144</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2137,25 +2170,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1729106628242075</v>
+        <v>0.19</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>287</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2163,13 +2196,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1592356687898089</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2181,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2189,13 +2222,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1530054644808743</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2207,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>155</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2215,13 +2248,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1510416666666667</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2233,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>163</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2241,13 +2274,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1475770925110132</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C47">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2259,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>387</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2267,13 +2300,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1413612565445026</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2285,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2293,13 +2326,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1290322580645161</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2311,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>216</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2319,25 +2352,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1290322580645161</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E50">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2345,25 +2378,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1132075471698113</v>
+        <v>0.1283422459893048</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F51">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>235</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2371,13 +2404,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1123287671232877</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="C52">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2389,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>324</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2397,25 +2430,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08781869688385269</v>
+        <v>0.1181318681318681</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E53">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2423,25 +2456,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.08258928571428571</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C54">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D54">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>411</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2449,25 +2482,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06435643564356436</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="C55">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E55">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="F55">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>567</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2475,25 +2508,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.05568445475638051</v>
+        <v>0.08731466227347612</v>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D56">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E56">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="F56">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>407</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2501,25 +2534,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04689480354879594</v>
+        <v>0.08705357142857142</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D57">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E57">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="F57">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>752</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2527,13 +2560,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03516819571865443</v>
+        <v>0.07062146892655367</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E58">
         <v>0.04</v>
@@ -2545,7 +2578,59 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>631</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.04294478527607362</v>
+      </c>
+      <c r="C59">
+        <v>28</v>
+      </c>
+      <c r="D59">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>0.1</v>
+      </c>
+      <c r="F59">
+        <v>0.9</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.03792667509481669</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>33</v>
+      </c>
+      <c r="E60">
+        <v>0.09</v>
+      </c>
+      <c r="F60">
+        <v>0.91</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
